--- a/execution_log/execution_log.xlsx
+++ b/execution_log/execution_log.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4425,7 +4425,7 @@
     </row>
     <row r="255">
       <c r="A255" s="1">
-        <v>45674.68144853547</v>
+        <v>45674.68144853009</v>
       </c>
       <c r="B255">
         <v>7</v>
@@ -4434,6 +4434,1830 @@
         <v>254</v>
       </c>
       <c r="D255" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1">
+        <v>45674.68679863425</v>
+      </c>
+      <c r="B256">
+        <v>3</v>
+      </c>
+      <c r="C256">
+        <v>255</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1">
+        <v>45674.69277078703</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="C257">
+        <v>256</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1">
+        <v>45675.20835452546</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="C258">
+        <v>257</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1">
+        <v>45676.20835355324</v>
+      </c>
+      <c r="B259">
+        <v>4</v>
+      </c>
+      <c r="C259">
+        <v>258</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1">
+        <v>45677.20835395833</v>
+      </c>
+      <c r="B260">
+        <v>4</v>
+      </c>
+      <c r="C260">
+        <v>259</v>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1">
+        <v>45678.20835482639</v>
+      </c>
+      <c r="B261">
+        <v>4</v>
+      </c>
+      <c r="C261">
+        <v>260</v>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1">
+        <v>45679.20835269676</v>
+      </c>
+      <c r="B262">
+        <v>3</v>
+      </c>
+      <c r="C262">
+        <v>261</v>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1">
+        <v>45680.20835376158</v>
+      </c>
+      <c r="B263">
+        <v>4</v>
+      </c>
+      <c r="C263">
+        <v>262</v>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1">
+        <v>45681.20835454861</v>
+      </c>
+      <c r="B264">
+        <v>4</v>
+      </c>
+      <c r="C264">
+        <v>263</v>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1">
+        <v>45682.20835365741</v>
+      </c>
+      <c r="B265">
+        <v>4</v>
+      </c>
+      <c r="C265">
+        <v>264</v>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1">
+        <v>45683.20835408565</v>
+      </c>
+      <c r="B266">
+        <v>4</v>
+      </c>
+      <c r="C266">
+        <v>265</v>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1">
+        <v>45684.20835550925</v>
+      </c>
+      <c r="B267">
+        <v>4</v>
+      </c>
+      <c r="C267">
+        <v>266</v>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1">
+        <v>45685.20835672454</v>
+      </c>
+      <c r="B268">
+        <v>5</v>
+      </c>
+      <c r="C268">
+        <v>267</v>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1">
+        <v>45686.20835854167</v>
+      </c>
+      <c r="B269">
+        <v>4</v>
+      </c>
+      <c r="C269">
+        <v>268</v>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1">
+        <v>45687.20835509259</v>
+      </c>
+      <c r="B270">
+        <v>4</v>
+      </c>
+      <c r="C270">
+        <v>269</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1">
+        <v>45688.20835506944</v>
+      </c>
+      <c r="B271">
+        <v>4</v>
+      </c>
+      <c r="C271">
+        <v>270</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1">
+        <v>45689.20835666667</v>
+      </c>
+      <c r="B272">
+        <v>4</v>
+      </c>
+      <c r="C272">
+        <v>271</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1">
+        <v>45690.20835528935</v>
+      </c>
+      <c r="B273">
+        <v>4</v>
+      </c>
+      <c r="C273">
+        <v>272</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1">
+        <v>45691.20835755787</v>
+      </c>
+      <c r="B274">
+        <v>4</v>
+      </c>
+      <c r="C274">
+        <v>273</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1">
+        <v>45692.20835510417</v>
+      </c>
+      <c r="B275">
+        <v>4</v>
+      </c>
+      <c r="C275">
+        <v>274</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1">
+        <v>45693.208355625</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+      <c r="C276">
+        <v>275</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1">
+        <v>45694.20836143519</v>
+      </c>
+      <c r="B277">
+        <v>4</v>
+      </c>
+      <c r="C277">
+        <v>276</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1">
+        <v>45695.20835643519</v>
+      </c>
+      <c r="B278">
+        <v>4</v>
+      </c>
+      <c r="C278">
+        <v>277</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1">
+        <v>45696.20835626157</v>
+      </c>
+      <c r="B279">
+        <v>4</v>
+      </c>
+      <c r="C279">
+        <v>278</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1">
+        <v>45697.20835782407</v>
+      </c>
+      <c r="B280">
+        <v>4</v>
+      </c>
+      <c r="C280">
+        <v>279</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1">
+        <v>45698.20835662037</v>
+      </c>
+      <c r="B281">
+        <v>4</v>
+      </c>
+      <c r="C281">
+        <v>280</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1">
+        <v>45699.20835210648</v>
+      </c>
+      <c r="B282">
+        <v>5</v>
+      </c>
+      <c r="C282">
+        <v>281</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1">
+        <v>45700.2083603588</v>
+      </c>
+      <c r="B283">
+        <v>4</v>
+      </c>
+      <c r="C283">
+        <v>282</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1">
+        <v>45701.20835736112</v>
+      </c>
+      <c r="B284">
+        <v>4</v>
+      </c>
+      <c r="C284">
+        <v>283</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1">
+        <v>45702.20835717593</v>
+      </c>
+      <c r="B285">
+        <v>4</v>
+      </c>
+      <c r="C285">
+        <v>284</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1">
+        <v>45703.20835167824</v>
+      </c>
+      <c r="B286">
+        <v>4</v>
+      </c>
+      <c r="C286">
+        <v>285</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1">
+        <v>45704.20835761575</v>
+      </c>
+      <c r="B287">
+        <v>4</v>
+      </c>
+      <c r="C287">
+        <v>286</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1">
+        <v>45705.20835612269</v>
+      </c>
+      <c r="B288">
+        <v>4</v>
+      </c>
+      <c r="C288">
+        <v>287</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1">
+        <v>45706.20835868055</v>
+      </c>
+      <c r="B289">
+        <v>4</v>
+      </c>
+      <c r="C289">
+        <v>288</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1">
+        <v>45707.20835685186</v>
+      </c>
+      <c r="B290">
+        <v>4</v>
+      </c>
+      <c r="C290">
+        <v>289</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1">
+        <v>45708.20836152778</v>
+      </c>
+      <c r="B291">
+        <v>4</v>
+      </c>
+      <c r="C291">
+        <v>290</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1">
+        <v>45709.20836309028</v>
+      </c>
+      <c r="B292">
+        <v>4</v>
+      </c>
+      <c r="C292">
+        <v>291</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1">
+        <v>45710.2083553588</v>
+      </c>
+      <c r="B293">
+        <v>4</v>
+      </c>
+      <c r="C293">
+        <v>292</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1">
+        <v>45711.20836064815</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="C294">
+        <v>293</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1">
+        <v>45712.20835844908</v>
+      </c>
+      <c r="B295">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>294</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1">
+        <v>45713.20836017361</v>
+      </c>
+      <c r="B296">
+        <v>4</v>
+      </c>
+      <c r="C296">
+        <v>295</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1">
+        <v>45714.20835424768</v>
+      </c>
+      <c r="B297">
+        <v>4</v>
+      </c>
+      <c r="C297">
+        <v>296</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1">
+        <v>45715.20835438657</v>
+      </c>
+      <c r="B298">
+        <v>4</v>
+      </c>
+      <c r="C298">
+        <v>297</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1">
+        <v>45716.20835777778</v>
+      </c>
+      <c r="B299">
+        <v>4</v>
+      </c>
+      <c r="C299">
+        <v>298</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1">
+        <v>45717.20835959491</v>
+      </c>
+      <c r="B300">
+        <v>4</v>
+      </c>
+      <c r="C300">
+        <v>299</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="1">
+        <v>45718.20835693287</v>
+      </c>
+      <c r="B301">
+        <v>4</v>
+      </c>
+      <c r="C301">
+        <v>300</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1">
+        <v>45719.2083609375</v>
+      </c>
+      <c r="B302">
+        <v>5</v>
+      </c>
+      <c r="C302">
+        <v>301</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1">
+        <v>45720.20835427084</v>
+      </c>
+      <c r="B303">
+        <v>5</v>
+      </c>
+      <c r="C303">
+        <v>302</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1">
+        <v>45721.20835710648</v>
+      </c>
+      <c r="B304">
+        <v>5</v>
+      </c>
+      <c r="C304">
+        <v>303</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1">
+        <v>45722.2083553125</v>
+      </c>
+      <c r="B305">
+        <v>5</v>
+      </c>
+      <c r="C305">
+        <v>304</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1">
+        <v>45723.20835560185</v>
+      </c>
+      <c r="B306">
+        <v>5</v>
+      </c>
+      <c r="C306">
+        <v>305</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1">
+        <v>45724.2083594213</v>
+      </c>
+      <c r="B307">
+        <v>5</v>
+      </c>
+      <c r="C307">
+        <v>306</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1">
+        <v>45725.20835260417</v>
+      </c>
+      <c r="B308">
+        <v>4</v>
+      </c>
+      <c r="C308">
+        <v>307</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1">
+        <v>45726.20835814815</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+      <c r="C309">
+        <v>308</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1">
+        <v>45727.20835925926</v>
+      </c>
+      <c r="B310">
+        <v>4</v>
+      </c>
+      <c r="C310">
+        <v>309</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1">
+        <v>45728.2083555787</v>
+      </c>
+      <c r="B311">
+        <v>4</v>
+      </c>
+      <c r="C311">
+        <v>310</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1">
+        <v>45729.20836252315</v>
+      </c>
+      <c r="B312">
+        <v>4</v>
+      </c>
+      <c r="C312">
+        <v>311</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1">
+        <v>45730.20836141203</v>
+      </c>
+      <c r="B313">
+        <v>4</v>
+      </c>
+      <c r="C313">
+        <v>312</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1">
+        <v>45731.20835634259</v>
+      </c>
+      <c r="B314">
+        <v>4</v>
+      </c>
+      <c r="C314">
+        <v>313</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1">
+        <v>45732.2083612037</v>
+      </c>
+      <c r="B315">
+        <v>4</v>
+      </c>
+      <c r="C315">
+        <v>314</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1">
+        <v>45733.20835381944</v>
+      </c>
+      <c r="B316">
+        <v>4</v>
+      </c>
+      <c r="C316">
+        <v>315</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1">
+        <v>45734.20835980324</v>
+      </c>
+      <c r="B317">
+        <v>4</v>
+      </c>
+      <c r="C317">
+        <v>316</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1">
+        <v>45735.20836184028</v>
+      </c>
+      <c r="B318">
+        <v>4</v>
+      </c>
+      <c r="C318">
+        <v>317</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1">
+        <v>45736.20835207176</v>
+      </c>
+      <c r="B319">
+        <v>4</v>
+      </c>
+      <c r="C319">
+        <v>318</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1">
+        <v>45737.20836041667</v>
+      </c>
+      <c r="B320">
+        <v>4</v>
+      </c>
+      <c r="C320">
+        <v>319</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1">
+        <v>45738.20835505787</v>
+      </c>
+      <c r="B321">
+        <v>4</v>
+      </c>
+      <c r="C321">
+        <v>320</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1">
+        <v>45739.20835771991</v>
+      </c>
+      <c r="B322">
+        <v>4</v>
+      </c>
+      <c r="C322">
+        <v>321</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1">
+        <v>45740.20835922453</v>
+      </c>
+      <c r="B323">
+        <v>4</v>
+      </c>
+      <c r="C323">
+        <v>322</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1">
+        <v>45741.20835368056</v>
+      </c>
+      <c r="B324">
+        <v>4</v>
+      </c>
+      <c r="C324">
+        <v>323</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1">
+        <v>45742.20835706018</v>
+      </c>
+      <c r="B325">
+        <v>4</v>
+      </c>
+      <c r="C325">
+        <v>324</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1">
+        <v>45743.20835862268</v>
+      </c>
+      <c r="B326">
+        <v>4</v>
+      </c>
+      <c r="C326">
+        <v>325</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1">
+        <v>45744.20835575231</v>
+      </c>
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="C327">
+        <v>326</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1">
+        <v>45745.20835299768</v>
+      </c>
+      <c r="B328">
+        <v>4</v>
+      </c>
+      <c r="C328">
+        <v>327</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1">
+        <v>45746.20836233796</v>
+      </c>
+      <c r="B329">
+        <v>4</v>
+      </c>
+      <c r="C329">
+        <v>328</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1">
+        <v>45747.20836024306</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="C330">
+        <v>329</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1">
+        <v>45748.20835486111</v>
+      </c>
+      <c r="B331">
+        <v>6</v>
+      </c>
+      <c r="C331">
+        <v>330</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1">
+        <v>45749.20835388888</v>
+      </c>
+      <c r="B332">
+        <v>3</v>
+      </c>
+      <c r="C332">
+        <v>331</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1">
+        <v>45750.20835012732</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>332</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1">
+        <v>45751.20835681713</v>
+      </c>
+      <c r="B334">
+        <v>3</v>
+      </c>
+      <c r="C334">
+        <v>333</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1">
+        <v>45752.20835055555</v>
+      </c>
+      <c r="B335">
+        <v>3</v>
+      </c>
+      <c r="C335">
+        <v>334</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1">
+        <v>45753.20835502315</v>
+      </c>
+      <c r="B336">
+        <v>3</v>
+      </c>
+      <c r="C336">
+        <v>335</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1">
+        <v>45773.36283086805</v>
+      </c>
+      <c r="B337">
+        <v>5</v>
+      </c>
+      <c r="C337">
+        <v>336</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1">
+        <v>45775.29512403935</v>
+      </c>
+      <c r="B338">
+        <v>4</v>
+      </c>
+      <c r="C338">
+        <v>337</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1">
+        <v>45775.33174859954</v>
+      </c>
+      <c r="B339">
+        <v>3</v>
+      </c>
+      <c r="C339">
+        <v>338</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1">
+        <v>45776.20835342593</v>
+      </c>
+      <c r="B340">
+        <v>3</v>
+      </c>
+      <c r="C340">
+        <v>339</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1">
+        <v>45777.20835798611</v>
+      </c>
+      <c r="B341">
+        <v>3</v>
+      </c>
+      <c r="C341">
+        <v>340</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1">
+        <v>45778.2083570949</v>
+      </c>
+      <c r="B342">
+        <v>3</v>
+      </c>
+      <c r="C342">
+        <v>341</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1">
+        <v>45779.20834872685</v>
+      </c>
+      <c r="B343">
+        <v>3</v>
+      </c>
+      <c r="C343">
+        <v>342</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1">
+        <v>45780.20835046296</v>
+      </c>
+      <c r="B344">
+        <v>3</v>
+      </c>
+      <c r="C344">
+        <v>343</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1">
+        <v>45781.20835832176</v>
+      </c>
+      <c r="B345">
+        <v>3</v>
+      </c>
+      <c r="C345">
+        <v>344</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1">
+        <v>45782.20834932871</v>
+      </c>
+      <c r="B346">
+        <v>3</v>
+      </c>
+      <c r="C346">
+        <v>345</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1">
+        <v>45783.20835108796</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="C347">
+        <v>346</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1">
+        <v>45784.20835373843</v>
+      </c>
+      <c r="B348">
+        <v>3</v>
+      </c>
+      <c r="C348">
+        <v>347</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1">
+        <v>45785.20835945602</v>
+      </c>
+      <c r="B349">
+        <v>3</v>
+      </c>
+      <c r="C349">
+        <v>348</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1">
+        <v>45786.20835850695</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>349</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1">
+        <v>45787.2083494213</v>
+      </c>
+      <c r="B351">
+        <v>3</v>
+      </c>
+      <c r="C351">
+        <v>350</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1">
+        <v>45788.20834885417</v>
+      </c>
+      <c r="B352">
+        <v>3</v>
+      </c>
+      <c r="C352">
+        <v>351</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1">
+        <v>45789.20834876157</v>
+      </c>
+      <c r="B353">
+        <v>3</v>
+      </c>
+      <c r="C353">
+        <v>352</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1">
+        <v>45790.20834752315</v>
+      </c>
+      <c r="B354">
+        <v>3</v>
+      </c>
+      <c r="C354">
+        <v>353</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1">
+        <v>45791.20834982639</v>
+      </c>
+      <c r="B355">
+        <v>3</v>
+      </c>
+      <c r="C355">
+        <v>354</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1">
+        <v>45792.20835766204</v>
+      </c>
+      <c r="B356">
+        <v>3</v>
+      </c>
+      <c r="C356">
+        <v>355</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1">
+        <v>45793.20835108796</v>
+      </c>
+      <c r="B357">
+        <v>3</v>
+      </c>
+      <c r="C357">
+        <v>356</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1">
+        <v>45794.20835246528</v>
+      </c>
+      <c r="B358">
+        <v>3</v>
+      </c>
+      <c r="C358">
+        <v>357</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1">
+        <v>45795.20834745371</v>
+      </c>
+      <c r="B359">
+        <v>3</v>
+      </c>
+      <c r="C359">
+        <v>358</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1">
+        <v>45796.20835510417</v>
+      </c>
+      <c r="B360">
+        <v>3</v>
+      </c>
+      <c r="C360">
+        <v>359</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1">
+        <v>45797.20835219907</v>
+      </c>
+      <c r="B361">
+        <v>3</v>
+      </c>
+      <c r="C361">
+        <v>360</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1">
+        <v>45798.20835762731</v>
+      </c>
+      <c r="B362">
+        <v>3</v>
+      </c>
+      <c r="C362">
+        <v>361</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1">
+        <v>45799.20836115741</v>
+      </c>
+      <c r="B363">
+        <v>3</v>
+      </c>
+      <c r="C363">
+        <v>362</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1">
+        <v>45800.20835687499</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>363</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1">
+        <v>45800.55301210648</v>
+      </c>
+      <c r="B365">
+        <v>4</v>
+      </c>
+      <c r="C365">
+        <v>364</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1">
+        <v>45800.55841407408</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+      <c r="C366">
+        <v>365</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1">
+        <v>45801.20834923611</v>
+      </c>
+      <c r="B367">
+        <v>3</v>
+      </c>
+      <c r="C367">
+        <v>366</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1">
+        <v>45802.20835663195</v>
+      </c>
+      <c r="B368">
+        <v>3</v>
+      </c>
+      <c r="C368">
+        <v>367</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1">
+        <v>45804.53088094995</v>
+      </c>
+      <c r="B369">
+        <v>5</v>
+      </c>
+      <c r="C369">
+        <v>368</v>
+      </c>
+      <c r="D369" t="inlineStr">
         <is>
           <t>data model updated</t>
         </is>

--- a/execution_log/execution_log.xlsx
+++ b/execution_log/execution_log.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D369"/>
+  <dimension ref="A1:D371"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6249,7 +6249,7 @@
     </row>
     <row r="369">
       <c r="A369" s="1">
-        <v>45804.53088094995</v>
+        <v>45804.53088094907</v>
       </c>
       <c r="B369">
         <v>5</v>
@@ -6258,6 +6258,38 @@
         <v>368</v>
       </c>
       <c r="D369" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1">
+        <v>45887.45433633102</v>
+      </c>
+      <c r="B370">
+        <v>15</v>
+      </c>
+      <c r="C370">
+        <v>369</v>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1">
+        <v>45887.47151704012</v>
+      </c>
+      <c r="B371">
+        <v>9</v>
+      </c>
+      <c r="C371">
+        <v>370</v>
+      </c>
+      <c r="D371" t="inlineStr">
         <is>
           <t>data model updated</t>
         </is>

--- a/execution_log/execution_log.xlsx
+++ b/execution_log/execution_log.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D371"/>
+  <dimension ref="A1:D402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="371">
       <c r="A371" s="1">
-        <v>45887.47151704012</v>
+        <v>45887.47151703703</v>
       </c>
       <c r="B371">
         <v>9</v>
@@ -6290,6 +6290,502 @@
         <v>370</v>
       </c>
       <c r="D371" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1">
+        <v>45888.20835796296</v>
+      </c>
+      <c r="B372">
+        <v>1</v>
+      </c>
+      <c r="C372">
+        <v>371</v>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1">
+        <v>45889.20835153935</v>
+      </c>
+      <c r="B373">
+        <v>1</v>
+      </c>
+      <c r="C373">
+        <v>372</v>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1">
+        <v>45890.20835796296</v>
+      </c>
+      <c r="B374">
+        <v>1</v>
+      </c>
+      <c r="C374">
+        <v>373</v>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1">
+        <v>45891.20835130787</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>374</v>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1">
+        <v>45891.57251833333</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>375</v>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1">
+        <v>45892.20834726852</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>376</v>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1">
+        <v>45893.20835944444</v>
+      </c>
+      <c r="B378">
+        <v>1</v>
+      </c>
+      <c r="C378">
+        <v>377</v>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1">
+        <v>45894.20835865741</v>
+      </c>
+      <c r="B379">
+        <v>2</v>
+      </c>
+      <c r="C379">
+        <v>378</v>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1">
+        <v>45895.20835292824</v>
+      </c>
+      <c r="B380">
+        <v>1</v>
+      </c>
+      <c r="C380">
+        <v>379</v>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1">
+        <v>45896.20835453704</v>
+      </c>
+      <c r="B381">
+        <v>1</v>
+      </c>
+      <c r="C381">
+        <v>380</v>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1">
+        <v>45897.20834559028</v>
+      </c>
+      <c r="B382">
+        <v>2</v>
+      </c>
+      <c r="C382">
+        <v>381</v>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1">
+        <v>45898.20835123843</v>
+      </c>
+      <c r="B383">
+        <v>1</v>
+      </c>
+      <c r="C383">
+        <v>382</v>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1">
+        <v>45899.20834863426</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>383</v>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1">
+        <v>45900.20835258102</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>384</v>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1">
+        <v>45901.20835599537</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>385</v>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1">
+        <v>45902.2083534375</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>386</v>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1">
+        <v>45903.20834826388</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388">
+        <v>387</v>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1">
+        <v>45904.20834982639</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>388</v>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1">
+        <v>45905.20835260417</v>
+      </c>
+      <c r="B390">
+        <v>2</v>
+      </c>
+      <c r="C390">
+        <v>389</v>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1">
+        <v>45906.20835344907</v>
+      </c>
+      <c r="B391">
+        <v>1</v>
+      </c>
+      <c r="C391">
+        <v>390</v>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1">
+        <v>45907.20835231482</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392">
+        <v>391</v>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1">
+        <v>45908.20835045139</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>392</v>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1">
+        <v>45909.20834696759</v>
+      </c>
+      <c r="B394">
+        <v>2</v>
+      </c>
+      <c r="C394">
+        <v>393</v>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1">
+        <v>45910.20836038195</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="C395">
+        <v>394</v>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1">
+        <v>45911.2083475463</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>395</v>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1">
+        <v>45912.2083606713</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>396</v>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1">
+        <v>45913.20835043982</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>397</v>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1">
+        <v>45915.20835069445</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399">
+        <v>398</v>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1">
+        <v>45916.20835710648</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400">
+        <v>399</v>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1">
+        <v>45917.20835598379</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>400</v>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1">
+        <v>45918.20835094062</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>401</v>
+      </c>
+      <c r="D402" t="inlineStr">
         <is>
           <t>data model updated</t>
         </is>

--- a/execution_log/execution_log.xlsx
+++ b/execution_log/execution_log.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D402"/>
+  <dimension ref="A1:D419"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6777,7 +6777,7 @@
     </row>
     <row r="402">
       <c r="A402" s="1">
-        <v>45918.20835094062</v>
+        <v>45918.2083509375</v>
       </c>
       <c r="B402">
         <v>2</v>
@@ -6786,6 +6786,278 @@
         <v>401</v>
       </c>
       <c r="D402" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1">
+        <v>45919.20835016204</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403">
+        <v>402</v>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1">
+        <v>45920.20835274305</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>403</v>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1">
+        <v>45921.2083609838</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>404</v>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1">
+        <v>45922.20835237268</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>405</v>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1">
+        <v>45923.20835290509</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>406</v>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1">
+        <v>45924.20835027778</v>
+      </c>
+      <c r="B408">
+        <v>2</v>
+      </c>
+      <c r="C408">
+        <v>407</v>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1">
+        <v>45925.20835167824</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>408</v>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1">
+        <v>45926.20835650463</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>409</v>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1">
+        <v>45927.20835320602</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>410</v>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1">
+        <v>45928.20835663195</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>411</v>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1">
+        <v>45929.20834850695</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>412</v>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1">
+        <v>45930.20835550925</v>
+      </c>
+      <c r="B414">
+        <v>2</v>
+      </c>
+      <c r="C414">
+        <v>413</v>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1">
+        <v>45931.20835684027</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>414</v>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1">
+        <v>45932.20835638889</v>
+      </c>
+      <c r="B416">
+        <v>2</v>
+      </c>
+      <c r="C416">
+        <v>415</v>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1">
+        <v>45933.20835777778</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>416</v>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1">
+        <v>45934.20835409722</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>417</v>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1">
+        <v>45935.20835737506</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419">
+        <v>418</v>
+      </c>
+      <c r="D419" t="inlineStr">
         <is>
           <t>data model updated</t>
         </is>

--- a/execution_log/execution_log.xlsx
+++ b/execution_log/execution_log.xlsx
@@ -344,7 +344,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D419"/>
+  <dimension ref="A1:D426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7049,7 +7049,7 @@
     </row>
     <row r="419">
       <c r="A419" s="1">
-        <v>45935.20835737506</v>
+        <v>45935.20835737268</v>
       </c>
       <c r="B419">
         <v>2</v>
@@ -7058,6 +7058,118 @@
         <v>418</v>
       </c>
       <c r="D419" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1">
+        <v>45947.36181872685</v>
+      </c>
+      <c r="B420">
+        <v>2</v>
+      </c>
+      <c r="C420">
+        <v>419</v>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1">
+        <v>45947.37890173611</v>
+      </c>
+      <c r="B421">
+        <v>1</v>
+      </c>
+      <c r="C421">
+        <v>420</v>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1">
+        <v>45960.74166202547</v>
+      </c>
+      <c r="B422">
+        <v>3</v>
+      </c>
+      <c r="C422">
+        <v>421</v>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1">
+        <v>45968.51396146991</v>
+      </c>
+      <c r="B423">
+        <v>2</v>
+      </c>
+      <c r="C423">
+        <v>422</v>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1">
+        <v>45982.63761258102</v>
+      </c>
+      <c r="B424">
+        <v>3</v>
+      </c>
+      <c r="C424">
+        <v>423</v>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="1">
+        <v>45989.3250813426</v>
+      </c>
+      <c r="B425">
+        <v>3</v>
+      </c>
+      <c r="C425">
+        <v>424</v>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>data model updated</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1">
+        <v>45992.48917890075</v>
+      </c>
+      <c r="B426">
+        <v>3</v>
+      </c>
+      <c r="C426">
+        <v>425</v>
+      </c>
+      <c r="D426" t="inlineStr">
         <is>
           <t>data model updated</t>
         </is>
